--- a/URS/DBLayouts/L8-遵循法令作業/JcicB204.xlsx
+++ b/URS/DBLayouts/L8-遵循法令作業/JcicB204.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKLmy\_prog\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8656CFBB-55B1-48C9-A9D9-EB4824CBD631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A56EEB-8218-4183-9320-76190463B4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <sheet name="暫存檔 Work_B204" sheetId="11" r:id="rId4"/>
     <sheet name="條件" sheetId="10" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DBD!$A$8:$G$26</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="136">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -590,62 +587,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>-- 先撈當日清償、當日授信資料寫入暫存檔</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>-- 當日清償
-INSERT INTO "Work_B204"
-SELECT Tx."AcDate"         AS "AcDate"
-     , Tx."CustNo"         AS "CustNo"
-     , Tx."FacmNo"         AS "FacmNo"
-     , Tx."BormNo"         AS "BormNo"
-     , 'P'                 AS "SubTranCode"       -- 交易別  -- P:每筆撥款清償後額度未解約(第10欄清償金額需大於0)
-     , SUM(Tx."TxAmt")     AS "Amt"
-FROM   "LoanBorTx" Tx
-  LEFT JOIN "FacMain" F  ON F."CustNo"  =  Tx."CustNo"
-                        AND F."FacmNo"  =  Tx."FacmNo"
-WHERE  Tx."AcDate"                =  TBSDYF
-  AND  Tx."CustNo"                &gt;  0
-  AND  NVL(Tx."TitaHCode", ' ')   IN ('0')    -- 正常
-  AND  NVL(Tx."TitaTxCd", ' ')    IN ('L3200', 'L3410', 'L3420')
-  AND  NVL(JSON_VALUE(Tx."OtherFields", '$.CaseCloseCode'),' ') IN ('0', '4', '5')   -- 結案區分: 正常, 催收戶本人清償, 催收戶保證人代償
-  AND  ( F."AdvanceCloseCode" &lt;&gt; 0 AND F."UtilAmt" = 0 )
-GROUP BY  Tx."AcDate", Tx."CustNo", Tx."FacmNo", Tx."BormNo"
-  ;</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>-- 當日授信
-INSERT INTO "Work_B204"
-SELECT Tx."AcDate"         AS "AcDate"
-     , Tx."CustNo"         AS "CustNo"
-     , Tx."FacmNo"         AS "FacmNo"
-     , Tx."BormNo"         AS "BormNo"
-     , 'L'                 AS "SubTranCode"       -- 交易別  -- L:新增授信額度
-     , SUM(Tx."TxAmt")     AS "Amt"
-FROM   "LoanBorTx" Tx
-  LEFT JOIN "LoanBorMain" M  ON M."CustNo"  =  Tx."CustNo"
-                            AND M."FacmNo"  =  Tx."FacmNo"
-                            AND M."BormNo"  =  Tx."BormNo"
-WHERE  Tx."AcDate"       =  TBSDYF
-  AND  Tx."CustNo"       &gt;  0
-  AND  NVL(Tx."TitaHCode", ' ') IN ('0')    -- 正常
-  AND  NVL(Tx."TitaTxCd", ' ')  IN ('L3100', 'L3110', 'L3120')
-  AND  NVL(M."RenewFlag", ' ')  NOT IN ('Y', '1')
-GROUP BY  Tx."AcDate", Tx."CustNo", Tx."FacmNo", Tx."BormNo"
-  ;</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>FROM "Work_B204" Tx
-  LEFT JOIN "CustMain"   ON "CustMain"."CustNo"    = Tx."CustNo"
-  LEFT JOIN "FacMain" F  ON F."CustNo"  =  Tx."CustNo"
-                        AND F."FacmNo"  =  Tx."FacmNo"
-  ;</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>TBSDYF</t>
   </si>
   <si>
@@ -714,6 +655,102 @@
   </si>
   <si>
     <t xml:space="preserve"> ' '</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -- 當日清償</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    INSERT INTO "Work_B204"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SELECT Tx."AcDate"         AS "AcDate"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         , Tx."CustNo"         AS "CustNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         , Tx."FacmNo"         AS "FacmNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         , Tx."BormNo"         AS "BormNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         , 'P'                 AS "SubTranCode"       -- 交易別  -- P:每筆撥款清償後額度未解約(第10欄清償金額需大於0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         , SUM(Tx."TxAmt")     AS "Amt"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FROM   "LoanBorTx" Tx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      LEFT JOIN "FacMain" F  ON F."CustNo"  =  Tx."CustNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            AND F."FacmNo"  =  Tx."FacmNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    WHERE  Tx."AcDate"                =  TBSDYF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AND  Tx."CustNo"                &gt;  0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AND  NVL(Tx."TitaHCode", ' ')   IN ('0')    -- 正常</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AND  NVL(Tx."TitaTxCd", ' ')    IN ('L3200', 'L3410', 'L3420')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AND  NVL(JSON_VALUE(Tx."OtherFields", '$.CaseCloseCode'),' ') IN ('0', '4', '5')   -- 結案區分: 正常, 催收戶本人清償, 催收戶保證人代償</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AND  NVL(F."AdvanceCloseCode",0) &lt;&gt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AND  NVL(F."UtilAmt",0)          =  0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    GROUP BY  Tx."AcDate", Tx."CustNo", Tx."FacmNo", Tx."BormNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -- 當日授信</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         , 'L'                 AS "SubTranCode"       -- 交易別  -- L:新增授信額度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      LEFT JOIN "LoanBorMain" M  ON M."CustNo"  =  Tx."CustNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                AND M."FacmNo"  =  Tx."FacmNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                AND M."BormNo"  =  Tx."BormNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    WHERE  Tx."AcDate"       =  TBSDYF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AND  Tx."CustNo"       &gt;  0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AND  NVL(Tx."TitaHCode", ' ') IN ('0')    -- 正常</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AND  NVL(Tx."TitaTxCd", ' ')  IN ('L3100', 'L3110', 'L3120')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AND  NVL(M."RenewFlag", ' ')  NOT IN ('Y', '1')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FROM "Work_B204" Tx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      LEFT JOIN "CustMain"   ON "CustMain"."CustNo"    = Tx."CustNo"</t>
   </si>
 </sst>
 </file>
@@ -1041,6 +1078,33 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1051,33 +1115,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1099,31 +1136,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="DBD"/>
-      <sheetName val="DBS"/>
-      <sheetName val="SP"/>
-      <sheetName val="條件"/>
-      <sheetName val="欄位說明"/>
-      <sheetName val="LNM34DP－複製"/>
-      <sheetName val="資料欄位清單D－複製"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1449,7 +1461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -1462,15 +1474,15 @@
     <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48.109375" style="17" customWidth="1"/>
     <col min="8" max="9" width="8.5546875" style="17" customWidth="1"/>
-    <col min="10" max="10" width="57.21875" style="36" customWidth="1"/>
+    <col min="10" max="10" width="57.21875" style="32" customWidth="1"/>
     <col min="11" max="16384" width="21.44140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="21" t="s">
         <v>54</v>
       </c>
@@ -1485,8 +1497,8 @@
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1501,10 +1513,10 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="8" t="s">
         <v>82</v>
       </c>
@@ -1517,10 +1529,10 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="12"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
@@ -1531,10 +1543,10 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="38"/>
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -1544,10 +1556,10 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="38"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -1557,10 +1569,10 @@
       <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="38"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -1591,10 +1603,10 @@
       <c r="G8" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="26" t="s">
         <v>48</v>
       </c>
       <c r="J8" s="19" t="s">
@@ -1621,8 +1633,8 @@
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
-      <c r="J9" s="34" t="s">
-        <v>95</v>
+      <c r="J9" s="30" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1651,8 +1663,8 @@
       <c r="I10" s="17">
         <v>1</v>
       </c>
-      <c r="J10" s="35" t="s">
-        <v>96</v>
+      <c r="J10" s="31" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1681,8 +1693,8 @@
       <c r="I11" s="17">
         <v>2</v>
       </c>
-      <c r="J11" s="34" t="s">
-        <v>97</v>
+      <c r="J11" s="30" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="14" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
@@ -1711,8 +1723,8 @@
       <c r="I12" s="17">
         <v>3</v>
       </c>
-      <c r="J12" s="34" t="s">
-        <v>98</v>
+      <c r="J12" s="30" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -1741,8 +1753,8 @@
       <c r="I13" s="17">
         <v>4</v>
       </c>
-      <c r="J13" s="34" t="s">
-        <v>99</v>
+      <c r="J13" s="30" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1771,8 +1783,8 @@
       <c r="I14" s="17">
         <v>5</v>
       </c>
-      <c r="J14" s="34" t="s">
-        <v>100</v>
+      <c r="J14" s="30" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="14" customFormat="1" ht="63" x14ac:dyDescent="0.3">
@@ -1801,8 +1813,8 @@
       <c r="I15" s="17">
         <v>6</v>
       </c>
-      <c r="J15" s="37" t="s">
-        <v>101</v>
+      <c r="J15" s="33" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -1831,8 +1843,8 @@
       <c r="I16" s="17">
         <v>7</v>
       </c>
-      <c r="J16" s="34" t="s">
-        <v>102</v>
+      <c r="J16" s="30" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="14" customFormat="1" ht="239.4" x14ac:dyDescent="0.3">
@@ -1861,8 +1873,8 @@
       <c r="I17" s="17">
         <v>8</v>
       </c>
-      <c r="J17" s="38" t="s">
-        <v>103</v>
+      <c r="J17" s="34" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -1891,8 +1903,8 @@
       <c r="I18" s="17">
         <v>9</v>
       </c>
-      <c r="J18" s="34" t="s">
-        <v>104</v>
+      <c r="J18" s="30" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -1921,8 +1933,8 @@
       <c r="I19" s="17">
         <v>10</v>
       </c>
-      <c r="J19" s="34" t="s">
-        <v>105</v>
+      <c r="J19" s="30" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -1951,8 +1963,8 @@
       <c r="I20" s="17">
         <v>11</v>
       </c>
-      <c r="J20" s="34" t="s">
-        <v>106</v>
+      <c r="J20" s="30" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -1981,8 +1993,8 @@
       <c r="I21" s="17">
         <v>12</v>
       </c>
-      <c r="J21" s="34" t="s">
-        <v>107</v>
+      <c r="J21" s="30" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2011,8 +2023,8 @@
       <c r="I22" s="17">
         <v>13</v>
       </c>
-      <c r="J22" s="34" t="s">
-        <v>107</v>
+      <c r="J22" s="30" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2035,7 +2047,7 @@
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="34"/>
+      <c r="J23" s="30"/>
     </row>
     <row r="24" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
@@ -2057,7 +2069,7 @@
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="34"/>
+      <c r="J24" s="30"/>
     </row>
     <row r="25" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
@@ -2079,7 +2091,7 @@
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
-      <c r="J25" s="34"/>
+      <c r="J25" s="30"/>
     </row>
     <row r="26" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
@@ -2101,213 +2113,213 @@
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
-      <c r="J26" s="34"/>
+      <c r="J26" s="30"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
-      <c r="J27" s="34"/>
+      <c r="J27" s="30"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="16"/>
-      <c r="J28" s="34"/>
+      <c r="J28" s="30"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="16"/>
-      <c r="J29" s="34"/>
+      <c r="J29" s="30"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
-      <c r="J30" s="34"/>
+      <c r="J30" s="30"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
-      <c r="J31" s="34"/>
+      <c r="J31" s="30"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="16"/>
-      <c r="J32" s="34"/>
+      <c r="J32" s="30"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
-      <c r="J33" s="34"/>
+      <c r="J33" s="30"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
-      <c r="J34" s="34"/>
+      <c r="J34" s="30"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="16"/>
-      <c r="J35" s="34"/>
+      <c r="J35" s="30"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
-      <c r="J36" s="34"/>
+      <c r="J36" s="30"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
-      <c r="J37" s="34"/>
+      <c r="J37" s="30"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="16"/>
-      <c r="J38" s="34"/>
+      <c r="J38" s="30"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="16"/>
-      <c r="J39" s="34"/>
+      <c r="J39" s="30"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
-      <c r="J40" s="34"/>
+      <c r="J40" s="30"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
-      <c r="J41" s="34"/>
+      <c r="J41" s="30"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="16"/>
-      <c r="J42" s="34"/>
+      <c r="J42" s="30"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="16"/>
-      <c r="J43" s="34"/>
+      <c r="J43" s="30"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="16"/>
-      <c r="J44" s="34"/>
+      <c r="J44" s="30"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="16"/>
-      <c r="J45" s="34"/>
+      <c r="J45" s="30"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
-      <c r="J46" s="34"/>
+      <c r="J46" s="30"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="16"/>
-      <c r="J47" s="34"/>
+      <c r="J47" s="30"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="16"/>
-      <c r="J48" s="34"/>
+      <c r="J48" s="30"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="16"/>
-      <c r="J49" s="34"/>
+      <c r="J49" s="30"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J50" s="34"/>
+      <c r="J50" s="30"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J51" s="34"/>
+      <c r="J51" s="30"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J52" s="34"/>
+      <c r="J52" s="30"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J53" s="34"/>
+      <c r="J53" s="30"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J54" s="34"/>
+      <c r="J54" s="30"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J55" s="34"/>
+      <c r="J55" s="30"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J56" s="34"/>
+      <c r="J56" s="30"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J57" s="34"/>
+      <c r="J57" s="30"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J58" s="34"/>
+      <c r="J58" s="30"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J59" s="34"/>
+      <c r="J59" s="30"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J60" s="34"/>
+      <c r="J60" s="30"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J61" s="34"/>
+      <c r="J61" s="30"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J62" s="34"/>
+      <c r="J62" s="30"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J63" s="34"/>
+      <c r="J63" s="30"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J64" s="34"/>
+      <c r="J64" s="30"/>
     </row>
     <row r="65" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J65" s="34"/>
+      <c r="J65" s="30"/>
     </row>
     <row r="66" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J66" s="34"/>
+      <c r="J66" s="30"/>
     </row>
     <row r="67" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J67" s="34"/>
+      <c r="J67" s="30"/>
     </row>
     <row r="68" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J68" s="34"/>
+      <c r="J68" s="30"/>
     </row>
     <row r="69" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J69" s="34"/>
+      <c r="J69" s="30"/>
     </row>
     <row r="70" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J70" s="34"/>
+      <c r="J70" s="30"/>
     </row>
     <row r="71" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J71" s="34"/>
+      <c r="J71" s="30"/>
     </row>
     <row r="72" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J72" s="34"/>
+      <c r="J72" s="30"/>
     </row>
     <row r="73" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J73" s="34"/>
+      <c r="J73" s="30"/>
     </row>
     <row r="74" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J74" s="34"/>
+      <c r="J74" s="30"/>
     </row>
     <row r="75" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J75" s="34"/>
+      <c r="J75" s="30"/>
     </row>
     <row r="76" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J76" s="34"/>
+      <c r="J76" s="30"/>
     </row>
     <row r="77" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J77" s="34"/>
+      <c r="J77" s="30"/>
     </row>
     <row r="78" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J78" s="34"/>
+      <c r="J78" s="30"/>
     </row>
     <row r="79" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J79" s="34"/>
+      <c r="J79" s="30"/>
     </row>
     <row r="80" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J80" s="34"/>
+      <c r="J80" s="30"/>
     </row>
     <row r="81" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J81" s="34"/>
+      <c r="J81" s="30"/>
     </row>
     <row r="82" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J82" s="34"/>
+      <c r="J82" s="30"/>
     </row>
     <row r="83" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J83" s="34"/>
+      <c r="J83" s="30"/>
     </row>
     <row r="84" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J84" s="34"/>
+      <c r="J84" s="30"/>
     </row>
     <row r="85" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J85" s="34"/>
+      <c r="J85" s="30"/>
     </row>
     <row r="86" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J86" s="34"/>
+      <c r="J86" s="30"/>
     </row>
     <row r="87" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J87" s="34"/>
+      <c r="J87" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2409,31 +2421,211 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D3FD7E-19B3-4527-AE6B-C8FFB09C0493}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="142.33203125" style="33" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="33"/>
+    <col min="1" max="1" width="142.33203125" style="29" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="262.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="262.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
-        <v>93</v>
+      <c r="A1" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="29" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2446,48 +2638,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF89516-5E19-4067-8EBA-B2462299ADF5}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="151.21875" style="33" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="32"/>
+    <col min="1" max="1" width="151.21875" style="29" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>94</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
+      <c r="A2" s="27" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
+      <c r="A3" s="27" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
+      <c r="A4" s="27" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="A5" s="27" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
+      <c r="A6" s="27"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
+      <c r="A7" s="27"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
+      <c r="A8" s="27"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
+      <c r="A9" s="27"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
+      <c r="A10" s="27"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
+      <c r="A11" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
